--- a/head_data_description.xlsx
+++ b/head_data_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06. SM_2022\2022-2\ITB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A3ABF-1F97-421F-9686-29AD11C1EB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38307763-AF66-484B-9F69-BF3F3BDCE4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,58 +950,121 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,27 +1076,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1043,100 +1085,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:G60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1430,59 +1430,60 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="5" max="5" width="36.08984375" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
@@ -1494,12 +1495,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1508,81 +1509,81 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="42">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="44" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="49" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="42">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="44" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="21">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="52" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
@@ -1595,13 +1596,13 @@
       <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="23">
-      <c r="A10" s="57"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="14">
         <v>11</v>
       </c>
@@ -1614,13 +1615,13 @@
       <c r="G10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="23">
-      <c r="A11" s="57"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="14">
         <v>26</v>
       </c>
@@ -1633,13 +1634,13 @@
       <c r="G11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="23">
-      <c r="A12" s="57"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14">
         <v>27</v>
       </c>
@@ -1652,13 +1653,13 @@
       <c r="G12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="23">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14">
         <v>28</v>
       </c>
@@ -1671,13 +1672,13 @@
       <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="23">
-      <c r="A14" s="57"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14">
         <v>29</v>
       </c>
@@ -1690,13 +1691,13 @@
       <c r="G14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="23">
-      <c r="A15" s="57"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14">
         <v>30</v>
       </c>
@@ -1709,13 +1710,13 @@
       <c r="G15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="23">
-      <c r="A16" s="57"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14">
         <v>31</v>
       </c>
@@ -1728,13 +1729,13 @@
       <c r="G16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="23">
-      <c r="A17" s="57"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14">
         <v>36</v>
       </c>
@@ -1747,13 +1748,13 @@
       <c r="G17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="14">
         <v>41</v>
       </c>
@@ -1762,82 +1763,82 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="42">
+      <c r="A19" s="25">
         <v>4</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="44" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="52" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="42" customHeight="1">
-      <c r="A21" s="42">
+      <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="44">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="64"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13" t="s">
         <v>20</v>
@@ -1851,12 +1852,12 @@
       <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="64"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="14">
         <v>1</v>
@@ -1870,12 +1871,12 @@
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="14">
         <v>2</v>
@@ -1889,12 +1890,12 @@
       <c r="G25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="64"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="14">
         <v>3</v>
@@ -1908,12 +1909,12 @@
       <c r="G26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="14">
         <v>4</v>
@@ -1927,12 +1928,12 @@
       <c r="G27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="64"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="14">
         <v>5</v>
@@ -1946,12 +1947,12 @@
       <c r="G28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="64"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14">
         <v>6</v>
@@ -1965,12 +1966,12 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14">
         <v>7</v>
@@ -1984,12 +1985,12 @@
       <c r="G30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="64"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14">
         <v>8</v>
@@ -2003,12 +2004,12 @@
       <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="64"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14">
         <v>9</v>
@@ -2022,91 +2023,91 @@
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="45"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="42">
+      <c r="A34" s="25">
         <v>6</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="44" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="21">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="68" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="42">
+      <c r="A36" s="25">
         <v>7</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="44" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="21">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="68" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1">
       <c r="A38" s="3">
@@ -2118,12 +2119,12 @@
       <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="4" t="s">
         <v>66</v>
       </c>
@@ -2132,402 +2133,402 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="42">
+      <c r="A39" s="25">
         <v>9</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="44" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="25" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="52" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="42">
+      <c r="A41" s="25">
         <v>10</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="44" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="25" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="52" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="42">
+      <c r="A43" s="25">
         <v>11</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="44" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="43"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="52" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="42">
+      <c r="A45" s="25">
         <v>12</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="44" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="52" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A47" s="42">
+      <c r="A47" s="25">
         <v>13</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="44" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="44">
+      <c r="I47" s="21">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="43"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="42">
+      <c r="A49" s="25">
         <v>14</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="44" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="44">
+      <c r="I49" s="21">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="43"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="42">
+      <c r="A51" s="25">
         <v>15</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="44" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="44">
+      <c r="I51" s="21">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="43"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="42">
+      <c r="A53" s="25">
         <v>16</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="44" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="74">
+      <c r="I53" s="33">
         <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="52" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="75"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="42">
+      <c r="A55" s="25">
         <v>17</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="44" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="44">
+      <c r="I55" s="21">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A56" s="57"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="58" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:9" ht="25" customHeight="1">
-      <c r="A57" s="57"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="58" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="64"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9" ht="28" customHeight="1">
-      <c r="A58" s="42">
+      <c r="A58" s="25">
         <v>18</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="44" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I58" s="44">
+      <c r="I58" s="21">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="50" customHeight="1">
-      <c r="A59" s="57"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="58" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="57"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="58" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="64"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:9" ht="28" customHeight="1">
-      <c r="A61" s="42">
+      <c r="A61" s="25">
         <v>19</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="44" t="s">
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="21" t="s">
         <v>96</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -2535,241 +2536,241 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A62" s="57"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="58" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="64"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25" customHeight="1">
-      <c r="A63" s="57"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="58" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="45"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" ht="41.5" customHeight="1">
-      <c r="A64" s="42">
+      <c r="A64" s="25">
         <v>20</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="44" t="s">
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I64" s="55">
+      <c r="I64" s="49">
         <v>15.3984375</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="43"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="56"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="50"/>
     </row>
     <row r="66" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A66" s="42">
+      <c r="A66" s="25">
         <v>21</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="44" t="s">
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="44">
+      <c r="I66" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="52" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="1:9" ht="40" customHeight="1">
-      <c r="A68" s="42">
+      <c r="A68" s="25">
         <v>22</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="44" t="s">
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I68" s="44">
+      <c r="I68" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
-      <c r="A69" s="57"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="58" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="57"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="58" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="64"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="22"/>
     </row>
     <row r="71" spans="1:9" ht="61" customHeight="1">
-      <c r="A71" s="42">
+      <c r="A71" s="25">
         <v>23</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="44" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="57"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="58" t="s">
+      <c r="A72" s="38"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="64"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="22"/>
     </row>
     <row r="73" spans="1:9" ht="56" customHeight="1">
-      <c r="A73" s="42">
+      <c r="A73" s="25">
         <v>24</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="44" t="s">
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="43"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="52" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
     </row>
     <row r="75" spans="1:9" ht="67" customHeight="1">
-      <c r="A75" s="42">
+      <c r="A75" s="25">
         <v>25</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="44" t="s">
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="21" t="s">
         <v>132</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -2777,163 +2778,163 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="43"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="52" t="s">
+      <c r="A76" s="26"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="45"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A77" s="42">
+      <c r="A77" s="25">
         <v>26</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="44" t="s">
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="74" t="s">
+      <c r="I77" s="33" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="52" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="75"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="42">
+      <c r="A79" s="25">
         <v>27</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="44" t="s">
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="74" t="s">
+      <c r="I79" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="43"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="52" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="75"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" ht="28" customHeight="1">
-      <c r="A81" s="42">
+      <c r="A81" s="25">
         <v>28</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="44" t="s">
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="74">
+      <c r="I81" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="57"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="58" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="82"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="42"/>
     </row>
     <row r="83" spans="1:9" ht="28" customHeight="1">
-      <c r="A83" s="42">
+      <c r="A83" s="25">
         <v>29</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="44" t="s">
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="74">
+      <c r="I83" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="52" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="75"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" ht="23.5" customHeight="1">
       <c r="A85" s="3">
@@ -2945,12 +2946,12 @@
       <c r="C85" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
       <c r="H85" s="4" t="s">
         <v>13</v>
       </c>
@@ -2959,62 +2960,223 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="42">
+      <c r="A86" s="25">
         <v>31</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="44" t="s">
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I86" s="74">
+      <c r="I86" s="33">
         <v>20161220</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="43"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="75"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="83"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H7:H18"/>
+    <mergeCell ref="I7:I18"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H21:H33"/>
+    <mergeCell ref="I21:I33"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:G65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H77:H78"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B21:B33"/>
     <mergeCell ref="A88:I88"/>
@@ -3039,177 +3201,16 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:G65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H7:H18"/>
-    <mergeCell ref="I7:I18"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H21:H33"/>
-    <mergeCell ref="I21:I33"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/head_data_description.xlsx
+++ b/head_data_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06. SM_2022\2022-2\ITB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38307763-AF66-484B-9F69-BF3F3BDCE4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC2E96-BFF9-42D2-9612-11853ECAC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,16 +950,64 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,6 +1025,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -992,30 +1109,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,103 +1133,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H18"/>
     </sheetView>
   </sheetViews>
@@ -1437,53 +1437,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="69" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="71"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="80" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.5" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="83"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
@@ -1495,12 +1495,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1509,81 +1509,81 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="21" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="63" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25">
+      <c r="A7" s="41">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="21" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="39">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
@@ -1596,13 +1596,13 @@
       <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="23">
-      <c r="A10" s="38"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="14">
         <v>11</v>
       </c>
@@ -1615,13 +1615,13 @@
       <c r="G10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="23">
-      <c r="A11" s="38"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="14">
         <v>26</v>
       </c>
@@ -1634,13 +1634,13 @@
       <c r="G11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="23">
-      <c r="A12" s="38"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="14">
         <v>27</v>
       </c>
@@ -1653,13 +1653,13 @@
       <c r="G12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="23">
-      <c r="A13" s="38"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14">
         <v>28</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="23">
-      <c r="A14" s="38"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="14">
         <v>29</v>
       </c>
@@ -1691,13 +1691,13 @@
       <c r="G14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="23">
-      <c r="A15" s="38"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="14">
         <v>30</v>
       </c>
@@ -1710,13 +1710,13 @@
       <c r="G15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="23">
-      <c r="A16" s="38"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="14">
         <v>31</v>
       </c>
@@ -1729,13 +1729,13 @@
       <c r="G16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="23">
-      <c r="A17" s="38"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="14">
         <v>36</v>
       </c>
@@ -1748,13 +1748,13 @@
       <c r="G17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="14">
         <v>41</v>
       </c>
@@ -1763,82 +1763,82 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="25">
+      <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="21" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="39" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="35" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="42" customHeight="1">
-      <c r="A21" s="25">
+      <c r="A21" s="41">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="39" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="21">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="39">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="22"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="38"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13" t="s">
         <v>20</v>
@@ -1852,12 +1852,12 @@
       <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="22"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="7"/>
       <c r="D24" s="14">
         <v>1</v>
@@ -1871,12 +1871,12 @@
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="7"/>
       <c r="D25" s="14">
         <v>2</v>
@@ -1890,12 +1890,12 @@
       <c r="G25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="22"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="38"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="7"/>
       <c r="D26" s="14">
         <v>3</v>
@@ -1909,12 +1909,12 @@
       <c r="G26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="22"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="38"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="7"/>
       <c r="D27" s="14">
         <v>4</v>
@@ -1928,12 +1928,12 @@
       <c r="G27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="38"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="7"/>
       <c r="D28" s="14">
         <v>5</v>
@@ -1947,12 +1947,12 @@
       <c r="G28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="22"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="38"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14">
         <v>6</v>
@@ -1966,12 +1966,12 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="22"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="38"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14">
         <v>7</v>
@@ -1985,12 +1985,12 @@
       <c r="G30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="22"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="38"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14">
         <v>8</v>
@@ -2004,12 +2004,12 @@
       <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="22"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14">
         <v>9</v>
@@ -2023,91 +2023,91 @@
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="22"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="23"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="25">
+      <c r="A34" s="41">
         <v>6</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="21" t="s">
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="39">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="25">
+      <c r="A36" s="41">
         <v>7</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="21" t="s">
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="39">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="51" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1">
       <c r="A38" s="3">
@@ -2119,12 +2119,12 @@
       <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="4" t="s">
         <v>66</v>
       </c>
@@ -2133,402 +2133,402 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="25">
+      <c r="A39" s="41">
         <v>9</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="21" t="s">
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="25" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="35" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="25">
+      <c r="A41" s="41">
         <v>10</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="21" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="25" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="35" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="25">
+      <c r="A43" s="41">
         <v>11</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="21" t="s">
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="35" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="25">
+      <c r="A45" s="41">
         <v>12</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="21" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="35" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
     </row>
     <row r="47" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A47" s="25">
+      <c r="A47" s="41">
         <v>13</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="21" t="s">
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="39">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="25">
+      <c r="A49" s="41">
         <v>14</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="21" t="s">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="39">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="26"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="25">
+      <c r="A51" s="41">
         <v>15</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="21" t="s">
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="39">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="26"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="25">
+      <c r="A53" s="41">
         <v>16</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="21" t="s">
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="72">
         <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="35" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="34"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="73"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="25">
+      <c r="A55" s="41">
         <v>17</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="21" t="s">
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="39">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A56" s="38"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="39" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9" ht="25" customHeight="1">
-      <c r="A57" s="38"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="39" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="22"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" ht="28" customHeight="1">
-      <c r="A58" s="25">
+      <c r="A58" s="41">
         <v>18</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="21" t="s">
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="39">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="50" customHeight="1">
-      <c r="A59" s="38"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="39" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="38"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="39" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9" ht="28" customHeight="1">
-      <c r="A61" s="25">
+      <c r="A61" s="41">
         <v>19</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="21" t="s">
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -2536,241 +2536,241 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A62" s="38"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="39" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="22"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25" customHeight="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="39" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="23"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" ht="41.5" customHeight="1">
-      <c r="A64" s="25">
+      <c r="A64" s="41">
         <v>20</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="21" t="s">
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I64" s="49">
+      <c r="I64" s="80">
         <v>15.3984375</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="26"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="50"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="81"/>
     </row>
     <row r="66" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A66" s="25">
+      <c r="A66" s="41">
         <v>21</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="21" t="s">
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="35" t="s">
+      <c r="A67" s="42"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="40" customHeight="1">
-      <c r="A68" s="25">
+      <c r="A68" s="41">
         <v>22</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="21" t="s">
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="39">
         <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="39" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="38"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="39" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="22"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:9" ht="61" customHeight="1">
-      <c r="A71" s="25">
+      <c r="A71" s="41">
         <v>23</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="21" t="s">
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="39">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="38"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="39" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="22"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="59"/>
     </row>
     <row r="73" spans="1:9" ht="56" customHeight="1">
-      <c r="A73" s="25">
+      <c r="A73" s="41">
         <v>24</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="21" t="s">
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="39">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="26"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="35" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
     </row>
     <row r="75" spans="1:9" ht="67" customHeight="1">
-      <c r="A75" s="25">
+      <c r="A75" s="41">
         <v>25</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="21" t="s">
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="39" t="s">
         <v>132</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -2778,163 +2778,163 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="26"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="35" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="23"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="40"/>
       <c r="I76" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A77" s="25">
+      <c r="A77" s="41">
         <v>26</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="21" t="s">
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="33" t="s">
+      <c r="I77" s="72" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="35" t="s">
+      <c r="A78" s="42"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="34"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="73"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="25">
+      <c r="A79" s="41">
         <v>27</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="21" t="s">
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="33" t="s">
+      <c r="I79" s="72" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="26"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="35" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="34"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="73"/>
     </row>
     <row r="81" spans="1:9" ht="28" customHeight="1">
-      <c r="A81" s="25">
+      <c r="A81" s="41">
         <v>28</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="21" t="s">
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="38"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="39" t="s">
+      <c r="A82" s="58"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="42"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="82"/>
     </row>
     <row r="83" spans="1:9" ht="28" customHeight="1">
-      <c r="A83" s="25">
+      <c r="A83" s="41">
         <v>29</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="21" t="s">
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="26"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="35" t="s">
+      <c r="A84" s="42"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="34"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="73"/>
     </row>
     <row r="85" spans="1:9" ht="23.5" customHeight="1">
       <c r="A85" s="3">
@@ -2946,12 +2946,12 @@
       <c r="C85" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="4" t="s">
         <v>13</v>
       </c>
@@ -2960,225 +2960,52 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="25">
+      <c r="A86" s="41">
         <v>31</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="21" t="s">
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="72">
         <v>20161220</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="26"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="34"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="73"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H7:H18"/>
-    <mergeCell ref="I7:I18"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H21:H33"/>
-    <mergeCell ref="I21:I33"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:G65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B21:B33"/>
     <mergeCell ref="A88:I88"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="B75:B76"/>
@@ -3201,16 +3028,189 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="D81:G81"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H66:H67"/>
     <mergeCell ref="H68:H70"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:G65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="H61:H63"/>
     <mergeCell ref="H58:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="B61:B63"/>
     <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H7:H18"/>
+    <mergeCell ref="I7:I18"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H21:H33"/>
+    <mergeCell ref="I21:I33"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/head_data_description.xlsx
+++ b/head_data_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06. SM_2022\2022-2\ITB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC2E96-BFF9-42D2-9612-11853ECAC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187EBB4-D81C-46FE-AA4D-2E5345CFDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51255" yWindow="2790" windowWidth="14400" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="health_data_description" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>수검자의 좌측 귀의 청력</t>
   </si>
   <si>
-    <t>1(정상), 2(비정상)</t>
-  </si>
-  <si>
     <t>청력(우)</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>데이터공개일자</t>
   </si>
   <si>
-    <t>해당 수검자의 치석 개수</t>
-  </si>
-  <si>
     <t>No(마시지 않는다), Yes(마신다)</t>
   </si>
   <si>
@@ -565,6 +559,13 @@
   </si>
   <si>
     <t>표준항목명</t>
+  </si>
+  <si>
+    <t>1(정상), 2(질환의심), 3(측정 불가)</t>
+  </si>
+  <si>
+    <t>해당 수검자의 치석 여부 
+    0(없음), 1(있음),  2(측정불가)</t>
   </si>
 </sst>
 </file>
@@ -950,58 +951,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,6 +975,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1034,6 +999,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,91 +1086,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1437,53 +1438,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
@@ -1495,12 +1496,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1509,81 +1510,81 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="41">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="39" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="41">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="39" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="46" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
@@ -1596,13 +1597,13 @@
       <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14">
         <v>11</v>
       </c>
@@ -1615,13 +1616,13 @@
       <c r="G10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="14">
         <v>26</v>
       </c>
@@ -1634,13 +1635,13 @@
       <c r="G11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="14">
         <v>27</v>
       </c>
@@ -1653,13 +1654,13 @@
       <c r="G12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14">
         <v>28</v>
       </c>
@@ -1672,13 +1673,13 @@
       <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14">
         <v>29</v>
       </c>
@@ -1691,13 +1692,13 @@
       <c r="G14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="14">
         <v>30</v>
       </c>
@@ -1710,13 +1711,13 @@
       <c r="G15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="14">
         <v>31</v>
       </c>
@@ -1729,13 +1730,13 @@
       <c r="G16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="14">
         <v>36</v>
       </c>
@@ -1748,13 +1749,13 @@
       <c r="G17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="14">
         <v>41</v>
       </c>
@@ -1763,82 +1764,82 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="41">
+      <c r="A19" s="24">
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="39" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>176</v>
+      <c r="I19" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="42"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="42" customHeight="1">
-      <c r="A21" s="41">
+      <c r="A21" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="39">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13" t="s">
         <v>20</v>
@@ -1852,12 +1853,12 @@
       <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="59"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="7"/>
       <c r="D24" s="14">
         <v>1</v>
@@ -1871,12 +1872,12 @@
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="59"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="7"/>
       <c r="D25" s="14">
         <v>2</v>
@@ -1890,12 +1891,12 @@
       <c r="G25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="59"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="7"/>
       <c r="D26" s="14">
         <v>3</v>
@@ -1909,12 +1910,12 @@
       <c r="G26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="7"/>
       <c r="D27" s="14">
         <v>4</v>
@@ -1928,12 +1929,12 @@
       <c r="G27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="59"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="7"/>
       <c r="D28" s="14">
         <v>5</v>
@@ -1947,12 +1948,12 @@
       <c r="G28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="59"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14">
         <v>6</v>
@@ -1966,12 +1967,12 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="59"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14">
         <v>7</v>
@@ -1985,12 +1986,12 @@
       <c r="G30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="59"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14">
         <v>8</v>
@@ -2004,12 +2005,12 @@
       <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="59"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14">
         <v>9</v>
@@ -2023,91 +2024,91 @@
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="59"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="42"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="40"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="41">
+      <c r="A34" s="24">
         <v>6</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="39" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="22">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="42"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="66" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="41">
+      <c r="A36" s="24">
         <v>7</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="39" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="22">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="66" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1">
       <c r="A38" s="3">
@@ -2119,12 +2120,12 @@
       <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="4" t="s">
         <v>66</v>
       </c>
@@ -2133,825 +2134,825 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="41">
+      <c r="A39" s="24">
         <v>9</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="39" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="25" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="46" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="41">
+      <c r="A41" s="24">
         <v>10</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="39" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="25" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="46" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="41">
+      <c r="A43" s="24">
         <v>11</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="39" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="42"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="46" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="24">
+        <v>12</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="41">
+      <c r="C45" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="27.5" customHeight="1">
+      <c r="A47" s="24">
+        <v>13</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="25"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="24">
+        <v>14</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="25"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="24">
+        <v>15</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="25"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="28" customHeight="1">
+      <c r="A53" s="24">
+        <v>16</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="32">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="24">
+        <v>17</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:9" ht="25" customHeight="1">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:9" ht="28" customHeight="1">
+      <c r="A58" s="24">
+        <v>18</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="50" customHeight="1">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="37"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:9" ht="28" customHeight="1">
+      <c r="A61" s="24">
+        <v>19</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="25" customHeight="1">
+      <c r="A63" s="37"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" ht="41.5" customHeight="1">
+      <c r="A64" s="24">
+        <v>20</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="49">
+        <v>15.3984375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="25"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="50"/>
+    </row>
+    <row r="66" spans="1:9" ht="27.5" customHeight="1">
+      <c r="A66" s="24">
+        <v>21</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="25" customHeight="1">
+      <c r="A67" s="25"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" ht="40" customHeight="1">
+      <c r="A68" s="24">
+        <v>22</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="25" customHeight="1">
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="1:9" ht="61" customHeight="1">
+      <c r="A71" s="24">
+        <v>23</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="22">
         <v>12</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="39" t="s">
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="37"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:9" ht="56" customHeight="1">
+      <c r="A73" s="24">
+        <v>24</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="25"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="1:9" ht="67" customHeight="1">
+      <c r="A75" s="24">
+        <v>25</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="25"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="27.5" customHeight="1">
+      <c r="A77" s="24">
+        <v>26</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I77" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="25" customHeight="1">
+      <c r="A78" s="25"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="33"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="24">
+        <v>27</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="25"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="1:9" ht="28" customHeight="1">
+      <c r="A81" s="24">
+        <v>28</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="42"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-    </row>
-    <row r="47" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A47" s="41">
+    <row r="82" spans="1:9">
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="42"/>
+    </row>
+    <row r="83" spans="1:9" ht="28" customHeight="1">
+      <c r="A83" s="24">
+        <v>29</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="39">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="42"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="41">
-        <v>14</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="39">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="42"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="41">
-        <v>15</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="39">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="42"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-    </row>
-    <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="41">
-        <v>16</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" s="72">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="73"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="41">
-        <v>17</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I55" s="39">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-    </row>
-    <row r="57" spans="1:9" ht="25" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="59"/>
-    </row>
-    <row r="58" spans="1:9" ht="28" customHeight="1">
-      <c r="A58" s="41">
-        <v>18</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" s="39">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="50" customHeight="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="58"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="59"/>
-    </row>
-    <row r="61" spans="1:9" ht="28" customHeight="1">
-      <c r="A61" s="41">
-        <v>19</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="25" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="41.5" customHeight="1">
-      <c r="A64" s="41">
-        <v>20</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I64" s="80">
-        <v>15.3984375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="42"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="81"/>
-    </row>
-    <row r="66" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A66" s="41">
-        <v>21</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="39">
+      <c r="I83" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="25" customHeight="1">
-      <c r="A67" s="42"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-    </row>
-    <row r="68" spans="1:9" ht="40" customHeight="1">
-      <c r="A68" s="41">
-        <v>22</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I68" s="39">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="25" customHeight="1">
-      <c r="A69" s="58"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="58"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="59"/>
-    </row>
-    <row r="71" spans="1:9" ht="61" customHeight="1">
-      <c r="A71" s="41">
-        <v>23</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="58"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="59"/>
-    </row>
-    <row r="73" spans="1:9" ht="56" customHeight="1">
-      <c r="A73" s="41">
-        <v>24</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" s="39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="42"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-    </row>
-    <row r="75" spans="1:9" ht="67" customHeight="1">
-      <c r="A75" s="41">
-        <v>25</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="42"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="27.5" customHeight="1">
-      <c r="A77" s="41">
-        <v>26</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="25" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="73"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="41">
-        <v>27</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="42"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="73"/>
-    </row>
-    <row r="81" spans="1:9" ht="28" customHeight="1">
-      <c r="A81" s="41">
-        <v>28</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="82"/>
-    </row>
-    <row r="83" spans="1:9" ht="28" customHeight="1">
-      <c r="A83" s="41">
-        <v>29</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="43" t="s">
+    <row r="84" spans="1:9">
+      <c r="A84" s="25"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="42"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="73"/>
-    </row>
-    <row r="85" spans="1:9" ht="23.5" customHeight="1">
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="1:9" ht="38.5" customHeight="1">
       <c r="A85" s="3">
         <v>30</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="45"/>
+      <c r="D85" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
       <c r="H85" s="4" t="s">
         <v>13</v>
       </c>
@@ -2960,52 +2961,233 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="41">
+      <c r="A86" s="24">
         <v>31</v>
       </c>
-      <c r="B86" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="39" t="s">
+      <c r="B86" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="I86" s="72">
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I86" s="32">
         <v>20161220</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="42"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="73"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="33"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="83"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H7:H18"/>
+    <mergeCell ref="I7:I18"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H21:H33"/>
+    <mergeCell ref="I21:I33"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:G65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H77:H78"/>
     <mergeCell ref="A88:I88"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="B75:B76"/>
@@ -3030,187 +3212,6 @@
     <mergeCell ref="D81:G81"/>
     <mergeCell ref="H71:H72"/>
     <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:G65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H7:H18"/>
-    <mergeCell ref="I7:I18"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H21:H33"/>
-    <mergeCell ref="I21:I33"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
